--- a/outputs/Top/api_login.xlsx
+++ b/outputs/Top/api_login.xlsx
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -467,7 +467,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="str">
-        <v>2023-04-17 09:57</v>
+        <v>2023-04-17 15:55</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="str">
-        <v>api/login</v>
+        <v>api/login/1</v>
       </c>
     </row>
     <row r="13">
@@ -522,12 +522,12 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="str">
-        <v>■ Overview</v>
+        <v>■ Params</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="str">
-        <v>đăng nhập</v>
+        <v>:id -&gt; number</v>
       </c>
     </row>
     <row r="16">
@@ -535,442 +535,770 @@
         <v/>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" s="2" t="str">
+        <v>■ Method</v>
+      </c>
+    </row>
     <row r="18">
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="2" t="str">
+        <v>post</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="str">
+        <v>■ Overview</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="str">
+        <v>đăng nhập</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3" t="str">
         <v>Request</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="4" t="str">
+    <row r="25">
+      <c r="B25" s="4" t="str">
         <v>####</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C25" s="5" t="str">
         <v>Item</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D25" s="5" t="str">
         <v>Tên Vật Lý</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E25" s="5" t="str">
         <v>Kiểu data (Max)</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F25" s="5" t="str">
         <v>Required - Min - Max (validate)</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G25" s="5" t="str">
         <v>Ghi chú</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="6" t="str">
+    <row r="26">
+      <c r="B26" s="6" t="str">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C26" s="6" t="str">
         <v>Tên đăng nhập</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D26" s="6" t="str">
         <v>user_name</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E26" s="6" t="str">
         <v>String</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="F26" s="6" t="str">
         <v>yes     -     4     -     4</v>
       </c>
-      <c r="G20" s="6" t="str">
+      <c r="G26" s="6" t="str">
         <v>không có ghi chú chi</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="6" t="str">
+    <row r="27">
+      <c r="B27" s="6" t="str">
         <v>2</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C27" s="6" t="str">
         <v>mật khẩu đăng nhập</v>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D27" s="6" t="str">
         <v>password</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E27" s="6" t="str">
         <v>String</v>
       </c>
-      <c r="F21" s="6" t="str">
+      <c r="F27" s="6" t="str">
         <v>yes     -     no     -     no</v>
       </c>
-      <c r="G21" s="6" t="str">
+      <c r="G27" s="6" t="str">
         <v>không có ghi chú chi</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="7" t="str">
+    <row r="28">
+      <c r="B28" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <v>schedule description</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <v>Array</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G28" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="6" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <v xml:space="preserve">    Subject Id</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <v xml:space="preserve">    subject_id</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <v>yes     -     no     -     no</v>
+      </c>
+      <c r="G29" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="6" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <v xml:space="preserve">    Day description</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <v xml:space="preserve">    day</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G30" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <v xml:space="preserve">    start time description</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <v xml:space="preserve">    start_time</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="6" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <v xml:space="preserve">    start time description</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <v xml:space="preserve">    end_time</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G32" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <v>schedule description</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <v>schedule2</v>
+      </c>
+      <c r="E33" s="6" t="str">
+        <v>Object</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G33" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="6" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <v xml:space="preserve">    Subject Id</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <v xml:space="preserve">    subject_id</v>
+      </c>
+      <c r="E34" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <v>yes     -     no     -     no</v>
+      </c>
+      <c r="G34" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="6" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <v xml:space="preserve">    Day description</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <v xml:space="preserve">    day</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="6" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <v xml:space="preserve">    start time description</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <v xml:space="preserve">    start_time</v>
+      </c>
+      <c r="E36" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G36" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="6" t="str">
+        <v>4.4</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <v xml:space="preserve">    start time description</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <v xml:space="preserve">    end_time</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <v>String</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <v>no     -     no     -     no</v>
+      </c>
+      <c r="G37" s="6" t="str">
+        <v>không có ghi chú chi</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="7" t="str">
         <v>Process</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="5" t="str">
+    <row r="42">
+      <c r="B42" s="5" t="str">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C42" s="5" t="str">
         <v>Check request parameter</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="2" t="str">
+    <row r="43">
+      <c r="B43" s="2" t="str">
         <v xml:space="preserve">    ■ Check Validate</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="6" t="str">
-        <v>user_name không có</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="6" t="str">
-        <v xml:space="preserve">    trường này bắt buộc phải nhập</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="6" t="str">
-        <v>user_name có độ dài nhỏ hơn 4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="6" t="str">
-        <v xml:space="preserve">    nhập ít nhất 4 ký tự</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="6" t="str">
-        <v>password không có</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="6" t="str">
-        <v xml:space="preserve">    trường này bắt buộc phải nhập</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="6" t="str">
-        <v>password có độ dài lớn hơn 4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="6" t="str">
-        <v xml:space="preserve">    nhập ít nhất 4 ký tự</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="5" t="str">
-        <v>2</v>
-      </c>
-      <c r="C37" s="5" t="str">
-        <v>Request</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="2" t="str">
-        <v xml:space="preserve">    ■ Data</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="C39" s="6" t="str" xml:space="preserve">
-        <v xml:space="preserve">user_name: a@gmail.com 
-password: 123@123 </v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="5" t="str">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="str">
-        <v>Status Response</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="2" t="str">
-        <v xml:space="preserve">    ■ Status</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="6" t="str">
-        <v>OK</v>
+      <c r="C43" s="2" t="str">
+        <v>error :500</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="6" t="str">
-        <v xml:space="preserve">    trả về success code : 200</v>
+        <v>user_name không có</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="6" t="str">
-        <v>Not Ok</v>
+        <v xml:space="preserve">    trường này bắt buộc phải nhập</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="6" t="str">
-        <v xml:space="preserve">    Trả về error code: 400 (Refer ■Error code 3)</v>
+        <v>user_name có độ dài nhỏ hơn 4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="6" t="str">
+        <v xml:space="preserve">    nhập ít nhất 4 ký tự</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="6" t="str">
+        <v>password không có</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="6" t="str">
+        <v xml:space="preserve">    trường này bắt buộc phải nhập</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="7" t="str">
+      <c r="C50" s="6" t="str">
+        <v>password có độ dài lớn hơn 4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="6" t="str">
+        <v xml:space="preserve">    nhập ít nhất 4 ký tự</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>Request</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="str">
+        <v xml:space="preserve">    ■ Data</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="C55" s="6" t="str" xml:space="preserve">
+        <v xml:space="preserve">user_name: a@gmail.com 
+password: 123@123 
+schedule:     [{"subject_id":1,"day":"tuesday","start_time":"10:10","end_time":"13:00"}] </v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v>Status Response</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="str">
+        <v xml:space="preserve">    ■ Status</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="6" t="str">
+        <v>note 1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="6" t="str">
+        <v xml:space="preserve">    OK</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="6" t="str">
+        <v xml:space="preserve">        trả về success code : 200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="6" t="str">
+        <v xml:space="preserve">    Not Ok</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="6" t="str">
+        <v xml:space="preserve">        Trả về error code: 400 (Refer ■Error code 3)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="6" t="str">
+        <v>note 2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="6" t="str">
+        <v xml:space="preserve">    OK</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="6" t="str">
+        <v xml:space="preserve">        trả về success code : 200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="6" t="str">
+        <v xml:space="preserve">    Not Ok</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" s="6" t="str">
+        <v xml:space="preserve">        Trả về error code: 400 (Refer ■Error code 3)</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="7" t="str">
         <v>Response</v>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="5" t="str">
+    <row r="73">
+      <c r="B73" s="5" t="str">
+        <v>■ Ok</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="5" t="str">
         <v>####</v>
       </c>
-      <c r="C51" s="5" t="str">
+      <c r="C74" s="5" t="str">
         <v>Item</v>
       </c>
-      <c r="D51" s="5" t="str">
+      <c r="D74" s="5" t="str">
         <v>Tên Vật Lý</v>
       </c>
-      <c r="E51" s="5" t="str">
+      <c r="E74" s="5" t="str">
         <v>Value</v>
       </c>
-      <c r="F51" s="5" t="str">
+      <c r="F74" s="5" t="str">
         <v>Kiểu data</v>
       </c>
-      <c r="G51" s="5" t="str">
+      <c r="G74" s="5" t="str">
         <v>Ghi chú</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="6" t="str">
+    <row r="75">
+      <c r="B75" s="6" t="str">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C75" s="6" t="str">
+        <v>Token</v>
+      </c>
+      <c r="D75" s="6" t="str">
         <v>token</v>
       </c>
-      <c r="D52" s="6" t="str">
+      <c r="E75" s="6" t="str">
+        <v>token&gt;&gt;&gt;</v>
+      </c>
+      <c r="F75" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E52" s="6" t="str">
-        <v>token&gt;&gt;&gt;</v>
-      </c>
-      <c r="F52" s="6" t="str">
-        <v>Token</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="6" t="str">
+    </row>
+    <row r="76">
+      <c r="B76" s="6" t="str">
         <v>2</v>
       </c>
-      <c r="C53" s="6" t="str">
+      <c r="C76" s="6" t="str">
+        <v>Refetch Token</v>
+      </c>
+      <c r="D76" s="6" t="str">
         <v>refetch_token</v>
       </c>
-      <c r="D53" s="6" t="str">
+      <c r="E76" s="6" t="str">
+        <v>refetch token&gt;&gt;&gt;</v>
+      </c>
+      <c r="F76" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E53" s="6" t="str">
-        <v>refetch token&gt;&gt;&gt;</v>
-      </c>
-      <c r="F53" s="6" t="str">
-        <v>Refetch Token</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="6" t="str">
+    </row>
+    <row r="77">
+      <c r="B77" s="6" t="str">
         <v>3</v>
       </c>
-      <c r="C54" s="6" t="str">
+      <c r="C77" s="6" t="str">
+        <v>User</v>
+      </c>
+      <c r="D77" s="6" t="str">
         <v>user</v>
       </c>
-      <c r="D54" s="6" t="str">
+      <c r="E77" s="6" t="str">
+        <v>[object Object]</v>
+      </c>
+      <c r="F77" s="6" t="str">
         <v>object</v>
       </c>
-      <c r="E54" s="6" t="str">
+    </row>
+    <row r="78">
+      <c r="B78" s="6" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="C78" s="6" t="str">
+        <v>Id</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <v xml:space="preserve">    id</v>
+      </c>
+      <c r="E78" s="6" t="str">
+        <v>id_user</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <v>string</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="6" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="C79" s="6" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <v xml:space="preserve">    name</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <v>name</v>
+      </c>
+      <c r="F79" s="6" t="str">
+        <v>string</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="6" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="C80" s="6" t="str">
+        <v>Age</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <v xml:space="preserve">    age</v>
+      </c>
+      <c r="E80" s="6" t="str">
+        <v>26</v>
+      </c>
+      <c r="F80" s="6" t="str">
+        <v>number</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <v>Idne</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <v>idNe</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <v>aaaa</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <v>string</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C82" s="6" t="str">
+        <v>Rooms</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <v>rooms</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <v>[object Object],[object Object]</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <v>object</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="6" t="str">
+        <v>5.1</v>
+      </c>
+      <c r="C83" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6" t="str">
+        <v xml:space="preserve">    0</v>
+      </c>
+      <c r="E83" s="6" t="str">
         <v>[object Object]</v>
       </c>
-      <c r="F54" s="6" t="str">
-        <v>User</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="6" t="str">
-        <v>3.1</v>
-      </c>
-      <c r="C55" s="6" t="str">
-        <v xml:space="preserve">    id</v>
-      </c>
-      <c r="D55" s="6" t="str">
+      <c r="F83" s="6" t="str">
+        <v>object</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="6" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="C84" s="6" t="str">
+        <v>A3 1</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <v xml:space="preserve">        a3_1</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <v>+++=</v>
+      </c>
+      <c r="F84" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E55" s="6" t="str">
-        <v>id_user</v>
-      </c>
-      <c r="F55" s="6" t="str">
-        <v>Id</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="6" t="str">
-        <v>3.2</v>
-      </c>
-      <c r="C56" s="6" t="str">
-        <v xml:space="preserve">    name</v>
-      </c>
-      <c r="D56" s="6" t="str">
+    </row>
+    <row r="85">
+      <c r="B85" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C85" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <v xml:space="preserve">    1</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <v>[object Object]</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <v>object</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="6" t="str">
+        <v>6.1</v>
+      </c>
+      <c r="C86" s="6" t="str">
+        <v>A3 2</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <v xml:space="preserve">        a3_2</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <v>-----</v>
+      </c>
+      <c r="F86" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E56" s="6" t="str">
-        <v>name</v>
-      </c>
-      <c r="F56" s="6" t="str">
-        <v>Name</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="6" t="str">
-        <v>3.3</v>
-      </c>
-      <c r="C57" s="6" t="str">
-        <v xml:space="preserve">    age</v>
-      </c>
-      <c r="D57" s="6" t="str">
-        <v>number</v>
-      </c>
-      <c r="E57" s="6" t="str">
-        <v>26</v>
-      </c>
-      <c r="F57" s="6" t="str">
-        <v>Age</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="6" t="str">
-        <v>4</v>
-      </c>
-      <c r="C58" s="6" t="str">
-        <v>idNe</v>
-      </c>
-      <c r="D58" s="6" t="str">
+    </row>
+    <row r="88">
+      <c r="B88" s="5" t="str">
+        <v>■ Not Ok</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="5" t="str">
+        <v>####</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v>Item</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v>Tên Vật Lý</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>Value</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v>Kiểu data</v>
+      </c>
+      <c r="G89" s="5" t="str">
+        <v>Ghi chú</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6" t="str">
+        <v>Error</v>
+      </c>
+      <c r="D90" s="6" t="str">
+        <v>error</v>
+      </c>
+      <c r="E90" s="6" t="str">
+        <v>200</v>
+      </c>
+      <c r="F90" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E58" s="6" t="str">
-        <v>aaaa</v>
-      </c>
-      <c r="F58" s="6" t="str">
-        <v>Idne</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="6" t="str">
-        <v>5</v>
-      </c>
-      <c r="C59" s="6" t="str">
-        <v>rooms</v>
-      </c>
-      <c r="D59" s="6" t="str">
-        <v>object</v>
-      </c>
-      <c r="E59" s="6" t="str">
-        <v>[object Object],[object Object]</v>
-      </c>
-      <c r="F59" s="6" t="str">
-        <v>Rooms</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="6" t="str">
-        <v>5.1</v>
-      </c>
-      <c r="C60" s="6" t="str">
-        <v xml:space="preserve">    0</v>
-      </c>
-      <c r="D60" s="6" t="str">
-        <v>object</v>
-      </c>
-      <c r="E60" s="6" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="F60" s="6" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="6" t="str">
-        <v>5.2</v>
-      </c>
-      <c r="C61" s="6" t="str">
-        <v xml:space="preserve">        a3_1</v>
-      </c>
-      <c r="D61" s="6" t="str">
+    </row>
+    <row r="91">
+      <c r="B91" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6" t="str">
+        <v>Message</v>
+      </c>
+      <c r="D91" s="6" t="str">
+        <v>message</v>
+      </c>
+      <c r="E91" s="6" t="str">
+        <v>Api error</v>
+      </c>
+      <c r="F91" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E61" s="6" t="str">
-        <v>+++=</v>
-      </c>
-      <c r="F61" s="6" t="str">
-        <v>A3 1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="6" t="str">
-        <v>6</v>
-      </c>
-      <c r="C62" s="6" t="str">
-        <v xml:space="preserve">    1</v>
-      </c>
-      <c r="D62" s="6" t="str">
-        <v>object</v>
-      </c>
-      <c r="E62" s="6" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="F62" s="6" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="6" t="str">
-        <v>6.1</v>
-      </c>
-      <c r="C63" s="6" t="str">
-        <v xml:space="preserve">        a3_2</v>
-      </c>
-      <c r="D63" s="6" t="str">
-        <v>string</v>
-      </c>
-      <c r="E63" s="6" t="str">
-        <v>-----</v>
-      </c>
-      <c r="F63" s="6" t="str">
-        <v>A3 2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="7" t="str">
+    </row>
+    <row r="95">
+      <c r="B95" s="7" t="str">
         <v>Error code</v>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" s="5" t="str">
+    <row r="96">
+      <c r="B96" s="5" t="str">
         <v>Code</v>
       </c>
-      <c r="C68" s="5" t="str">
+      <c r="C96" s="5" t="str">
         <v>Nội Dung</v>
       </c>
-      <c r="D68" s="5" t="str">
+      <c r="D96" s="5" t="str">
         <v>Message</v>
       </c>
-      <c r="E68" s="5" t="str">
+      <c r="E96" s="5" t="str">
         <v>Note</v>
       </c>
     </row>
-    <row r="69" xml:space="preserve">
-      <c r="B69" s="6" t="str">
+    <row r="97" xml:space="preserve">
+      <c r="B97" s="6" t="str">
         <v>400</v>
       </c>
-      <c r="C69" s="6" t="str">
+      <c r="C97" s="6" t="str">
         <v>Parameter error</v>
       </c>
-      <c r="D69" s="6" t="str" xml:space="preserve">
+      <c r="D97" s="6" t="str" xml:space="preserve">
         <v xml:space="preserve">1 identifier is a required field 
 2 password is a required field 
 3 Invalid identifier or password </v>
       </c>
-      <c r="E69" s="6" t="str">
+      <c r="E97" s="6" t="str">
         <v>T có note gì đâu</v>
       </c>
     </row>

--- a/outputs/Top/api_login.xlsx
+++ b/outputs/Top/api_login.xlsx
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -467,7 +467,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="str">
-        <v>2023-04-17 15:55</v>
+        <v>2023-04-17 16:36</v>
       </c>
     </row>
     <row r="4">
@@ -891,199 +891,151 @@
         <v xml:space="preserve">    nhập ít nhất 4 ký tự</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" s="6" t="str">
+        <v>schedule không có</v>
+      </c>
+    </row>
     <row r="53">
-      <c r="B53" s="5" t="str">
+      <c r="C53" s="6" t="str">
+        <v xml:space="preserve">    trường này bắt buộc phải nhập</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="6" t="str">
+        <v>schedule2 không có</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="6" t="str">
+        <v xml:space="preserve">    trường này bắt buộc phải nhập</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="5" t="str">
         <v>2</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C57" s="5" t="str">
         <v>Request</v>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="2" t="str">
+    <row r="58">
+      <c r="B58" s="2" t="str">
         <v xml:space="preserve">    ■ Data</v>
       </c>
     </row>
-    <row r="55" xml:space="preserve">
-      <c r="C55" s="6" t="str" xml:space="preserve">
+    <row r="59" xml:space="preserve">
+      <c r="C59" s="6" t="str" xml:space="preserve">
         <v xml:space="preserve">user_name: a@gmail.com 
 password: 123@123 
 schedule:     [{"subject_id":1,"day":"tuesday","start_time":"10:10","end_time":"13:00"}] </v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="5" t="str">
+    <row r="61">
+      <c r="B61" s="5" t="str">
         <v>3</v>
       </c>
-      <c r="C57" s="5" t="str">
+      <c r="C61" s="5" t="str">
         <v>Status Response</v>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="2" t="str">
+    <row r="62">
+      <c r="B62" s="2" t="str">
         <v xml:space="preserve">    ■ Status</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="6" t="str">
-        <v>note 1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="6" t="str">
-        <v xml:space="preserve">    OK</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="6" t="str">
-        <v xml:space="preserve">        trả về success code : 200</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="6" t="str">
-        <v xml:space="preserve">    Not Ok</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" s="6" t="str">
-        <v xml:space="preserve">        Trả về error code: 400 (Refer ■Error code 3)</v>
+        <v>note 1</v>
       </c>
     </row>
     <row r="64">
       <c r="C64" s="6" t="str">
-        <v>note 2</v>
+        <v xml:space="preserve">    OK</v>
       </c>
     </row>
     <row r="65">
       <c r="C65" s="6" t="str">
-        <v xml:space="preserve">    OK</v>
+        <v xml:space="preserve">        trả về success code : 200</v>
       </c>
     </row>
     <row r="66">
       <c r="C66" s="6" t="str">
-        <v xml:space="preserve">        trả về success code : 200</v>
+        <v xml:space="preserve">    Not Ok</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="6" t="str">
-        <v xml:space="preserve">    Not Ok</v>
+        <v xml:space="preserve">        Trả về error code: 400 (Refer ■Error code 3)</v>
       </c>
     </row>
     <row r="68">
       <c r="C68" s="6" t="str">
+        <v>note 2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="6" t="str">
+        <v xml:space="preserve">    OK</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="6" t="str">
+        <v xml:space="preserve">        trả về success code : 200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="6" t="str">
+        <v xml:space="preserve">    Not Ok</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="6" t="str">
         <v xml:space="preserve">        Trả về error code: 400 (Refer ■Error code 3)</v>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" s="7" t="str">
+    <row r="76">
+      <c r="B76" s="7" t="str">
         <v>Response</v>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="5" t="str">
+    <row r="77">
+      <c r="B77" s="5" t="str">
         <v>■ Ok</v>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" s="5" t="str">
+    <row r="78">
+      <c r="B78" s="5" t="str">
         <v>####</v>
       </c>
-      <c r="C74" s="5" t="str">
+      <c r="C78" s="5" t="str">
         <v>Item</v>
       </c>
-      <c r="D74" s="5" t="str">
+      <c r="D78" s="5" t="str">
         <v>Tên Vật Lý</v>
       </c>
-      <c r="E74" s="5" t="str">
+      <c r="E78" s="5" t="str">
         <v>Value</v>
       </c>
-      <c r="F74" s="5" t="str">
+      <c r="F78" s="5" t="str">
         <v>Kiểu data</v>
       </c>
-      <c r="G74" s="5" t="str">
+      <c r="G78" s="5" t="str">
         <v>Ghi chú</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="6" t="str">
-        <v>1</v>
-      </c>
-      <c r="C75" s="6" t="str">
-        <v>Token</v>
-      </c>
-      <c r="D75" s="6" t="str">
-        <v>token</v>
-      </c>
-      <c r="E75" s="6" t="str">
-        <v>token&gt;&gt;&gt;</v>
-      </c>
-      <c r="F75" s="6" t="str">
-        <v>string</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="6" t="str">
-        <v>2</v>
-      </c>
-      <c r="C76" s="6" t="str">
-        <v>Refetch Token</v>
-      </c>
-      <c r="D76" s="6" t="str">
-        <v>refetch_token</v>
-      </c>
-      <c r="E76" s="6" t="str">
-        <v>refetch token&gt;&gt;&gt;</v>
-      </c>
-      <c r="F76" s="6" t="str">
-        <v>string</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="6" t="str">
-        <v>3</v>
-      </c>
-      <c r="C77" s="6" t="str">
-        <v>User</v>
-      </c>
-      <c r="D77" s="6" t="str">
-        <v>user</v>
-      </c>
-      <c r="E77" s="6" t="str">
-        <v>[object Object]</v>
-      </c>
-      <c r="F77" s="6" t="str">
-        <v>object</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="6" t="str">
-        <v>3.1</v>
-      </c>
-      <c r="C78" s="6" t="str">
-        <v>Id</v>
-      </c>
-      <c r="D78" s="6" t="str">
-        <v xml:space="preserve">    id</v>
-      </c>
-      <c r="E78" s="6" t="str">
-        <v>id_user</v>
-      </c>
-      <c r="F78" s="6" t="str">
-        <v>string</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="6" t="str">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="C79" s="6" t="str">
-        <v>Name</v>
+        <v>Token</v>
       </c>
       <c r="D79" s="6" t="str">
-        <v xml:space="preserve">    name</v>
+        <v>token</v>
       </c>
       <c r="E79" s="6" t="str">
-        <v>name</v>
+        <v>token&gt;&gt;&gt;</v>
       </c>
       <c r="F79" s="6" t="str">
         <v>string</v>
@@ -1091,214 +1043,282 @@
     </row>
     <row r="80">
       <c r="B80" s="6" t="str">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="6" t="str">
-        <v>Age</v>
+        <v>Refetch Token</v>
       </c>
       <c r="D80" s="6" t="str">
-        <v xml:space="preserve">    age</v>
+        <v>refetch_token</v>
       </c>
       <c r="E80" s="6" t="str">
-        <v>26</v>
+        <v>refetch token&gt;&gt;&gt;</v>
       </c>
       <c r="F80" s="6" t="str">
-        <v>number</v>
+        <v>string</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="6" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="6" t="str">
-        <v>Idne</v>
+        <v>User</v>
       </c>
       <c r="D81" s="6" t="str">
-        <v>idNe</v>
+        <v>user</v>
       </c>
       <c r="E81" s="6" t="str">
-        <v>aaaa</v>
+        <v>[object Object]</v>
       </c>
       <c r="F81" s="6" t="str">
-        <v>string</v>
+        <v>object</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="6" t="str">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="C82" s="6" t="str">
-        <v>Rooms</v>
+        <v>Id</v>
       </c>
       <c r="D82" s="6" t="str">
-        <v>rooms</v>
+        <v xml:space="preserve">    id</v>
       </c>
       <c r="E82" s="6" t="str">
-        <v>[object Object],[object Object]</v>
+        <v>id_user</v>
       </c>
       <c r="F82" s="6" t="str">
-        <v>object</v>
+        <v>string</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="6" t="str">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="C83" s="6" t="str">
-        <v>0</v>
+        <v>Name</v>
       </c>
       <c r="D83" s="6" t="str">
-        <v xml:space="preserve">    0</v>
+        <v xml:space="preserve">    name</v>
       </c>
       <c r="E83" s="6" t="str">
-        <v>[object Object]</v>
+        <v>name</v>
       </c>
       <c r="F83" s="6" t="str">
-        <v>object</v>
+        <v>string</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="6" t="str">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="C84" s="6" t="str">
-        <v>A3 1</v>
+        <v>Age</v>
       </c>
       <c r="D84" s="6" t="str">
-        <v xml:space="preserve">        a3_1</v>
+        <v xml:space="preserve">    age</v>
       </c>
       <c r="E84" s="6" t="str">
-        <v>+++=</v>
+        <v>26</v>
       </c>
       <c r="F84" s="6" t="str">
-        <v>string</v>
+        <v>number</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="6" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" s="6" t="str">
-        <v>1</v>
+        <v>Idne</v>
       </c>
       <c r="D85" s="6" t="str">
-        <v xml:space="preserve">    1</v>
+        <v>idNe</v>
       </c>
       <c r="E85" s="6" t="str">
-        <v>[object Object]</v>
+        <v>aaaa</v>
       </c>
       <c r="F85" s="6" t="str">
-        <v>object</v>
+        <v>string</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="6" t="str">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="C86" s="6" t="str">
-        <v>A3 2</v>
+        <v>Rooms</v>
       </c>
       <c r="D86" s="6" t="str">
-        <v xml:space="preserve">        a3_2</v>
+        <v>rooms</v>
       </c>
       <c r="E86" s="6" t="str">
-        <v>-----</v>
+        <v>[object Object],[object Object]</v>
       </c>
       <c r="F86" s="6" t="str">
+        <v>object</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="6" t="str">
+        <v>5.1</v>
+      </c>
+      <c r="C87" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <v xml:space="preserve">    0</v>
+      </c>
+      <c r="E87" s="6" t="str">
+        <v>[object Object]</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <v>object</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="6" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="C88" s="6" t="str">
+        <v>A3 1</v>
+      </c>
+      <c r="D88" s="6" t="str">
+        <v xml:space="preserve">        a3_1</v>
+      </c>
+      <c r="E88" s="6" t="str">
+        <v>+++=</v>
+      </c>
+      <c r="F88" s="6" t="str">
         <v>string</v>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" s="5" t="str">
-        <v>■ Not Ok</v>
-      </c>
-    </row>
     <row r="89">
-      <c r="B89" s="5" t="str">
-        <v>####</v>
-      </c>
-      <c r="C89" s="5" t="str">
-        <v>Item</v>
-      </c>
-      <c r="D89" s="5" t="str">
-        <v>Tên Vật Lý</v>
-      </c>
-      <c r="E89" s="5" t="str">
-        <v>Value</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <v>Kiểu data</v>
-      </c>
-      <c r="G89" s="5" t="str">
-        <v>Ghi chú</v>
+      <c r="B89" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C89" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D89" s="6" t="str">
+        <v xml:space="preserve">    1</v>
+      </c>
+      <c r="E89" s="6" t="str">
+        <v>[object Object]</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <v>object</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="6" t="str">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="C90" s="6" t="str">
-        <v>Error</v>
+        <v>A3 2</v>
       </c>
       <c r="D90" s="6" t="str">
-        <v>error</v>
+        <v xml:space="preserve">        a3_2</v>
       </c>
       <c r="E90" s="6" t="str">
-        <v>200</v>
+        <v>-----</v>
       </c>
       <c r="F90" s="6" t="str">
         <v>string</v>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" s="6" t="str">
+    <row r="92">
+      <c r="B92" s="5" t="str">
+        <v>■ Not Ok</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="5" t="str">
+        <v>####</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v>Item</v>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v>Tên Vật Lý</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v>Value</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v>Kiểu data</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <v>Ghi chú</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="str">
+        <v>Error</v>
+      </c>
+      <c r="D94" s="6" t="str">
+        <v>error</v>
+      </c>
+      <c r="E94" s="6" t="str">
+        <v>200</v>
+      </c>
+      <c r="F94" s="6" t="str">
+        <v>string</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="6" t="str">
         <v>2</v>
       </c>
-      <c r="C91" s="6" t="str">
+      <c r="C95" s="6" t="str">
         <v>Message</v>
       </c>
-      <c r="D91" s="6" t="str">
+      <c r="D95" s="6" t="str">
         <v>message</v>
       </c>
-      <c r="E91" s="6" t="str">
+      <c r="E95" s="6" t="str">
         <v>Api error</v>
       </c>
-      <c r="F91" s="6" t="str">
+      <c r="F95" s="6" t="str">
         <v>string</v>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" s="7" t="str">
+    <row r="99">
+      <c r="B99" s="7" t="str">
         <v>Error code</v>
       </c>
     </row>
-    <row r="96">
-      <c r="B96" s="5" t="str">
+    <row r="100">
+      <c r="B100" s="5" t="str">
         <v>Code</v>
       </c>
-      <c r="C96" s="5" t="str">
+      <c r="C100" s="5" t="str">
         <v>Nội Dung</v>
       </c>
-      <c r="D96" s="5" t="str">
+      <c r="D100" s="5" t="str">
         <v>Message</v>
       </c>
-      <c r="E96" s="5" t="str">
+      <c r="E100" s="5" t="str">
         <v>Note</v>
       </c>
     </row>
-    <row r="97" xml:space="preserve">
-      <c r="B97" s="6" t="str">
+    <row r="101" xml:space="preserve">
+      <c r="B101" s="6" t="str">
         <v>400</v>
       </c>
-      <c r="C97" s="6" t="str">
+      <c r="C101" s="6" t="str">
         <v>Parameter error</v>
       </c>
-      <c r="D97" s="6" t="str" xml:space="preserve">
+      <c r="D101" s="6" t="str" xml:space="preserve">
         <v xml:space="preserve">1 identifier is a required field 
 2 password is a required field 
 3 Invalid identifier or password </v>
       </c>
-      <c r="E97" s="6" t="str">
+      <c r="E101" s="6" t="str">
         <v>T có note gì đâu</v>
       </c>
     </row>
